--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9060BD9-3AE0-4EFA-B6D1-D17BF53579D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8842B-E9EC-4697-ABD8-B7C819B4B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="2820" windowWidth="13800" windowHeight="7092" xr2:uid="{787D625C-02D7-4E05-B256-B60119573102}"/>
+    <workbookView xWindow="4224" yWindow="4212" windowWidth="13800" windowHeight="7092" xr2:uid="{787D625C-02D7-4E05-B256-B60119573102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>kategori_id</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Cleo 600ml</t>
+  </si>
+  <si>
+    <t>boo</t>
+  </si>
+  <si>
+    <t>Pakaian adat</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68F74B0-C1E6-4F6D-BB76-4973962A9DB1}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +554,23 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>90000</v>
+      </c>
+      <c r="E7">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
